--- a/sharding_spreadsheets/module/linear_layer.xlsx
+++ b/sharding_spreadsheets/module/linear_layer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cman8\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20C9444-F63D-4C11-8E5B-3EF28875D49C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE65B3A5-598D-4696-BD83-2B3702E2CE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{B1DA4911-2E6E-43BF-921A-7BCA564D2C42}"/>
   </bookViews>

--- a/sharding_spreadsheets/module/linear_layer.xlsx
+++ b/sharding_spreadsheets/module/linear_layer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cman8\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE65B3A5-598D-4696-BD83-2B3702E2CE2A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B33B248-5A1B-437E-9EB9-98852E9E3725}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{B1DA4911-2E6E-43BF-921A-7BCA564D2C42}"/>
   </bookViews>
@@ -472,7 +472,7 @@
   <dimension ref="A1:K7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -592,7 +592,7 @@
         <v>9</v>
       </c>
       <c r="G5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H5">
         <v>1</v>
